--- a/goods.xlsx
+++ b/goods.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="559">
   <si>
     <t>ID</t>
   </si>
@@ -1117,6 +1117,582 @@
   </si>
   <si>
     <t>林老弟食品</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>6939261900788</t>
+  </si>
+  <si>
+    <t>西瓜霜润喉片</t>
+  </si>
+  <si>
+    <t>36片</t>
+  </si>
+  <si>
+    <t>桂林三金药业</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>6920560420268</t>
+  </si>
+  <si>
+    <t>金嗓子喉片</t>
+  </si>
+  <si>
+    <t>6片×2板</t>
+  </si>
+  <si>
+    <t>广西金嗓子有限责任公司</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>6905273029212</t>
+  </si>
+  <si>
+    <t>双料喉风散</t>
+  </si>
+  <si>
+    <t>每瓶装2.2克</t>
+  </si>
+  <si>
+    <t>广东嘉应制药股份有限公司</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>6920190330210</t>
+  </si>
+  <si>
+    <t>红霉素软膏</t>
+  </si>
+  <si>
+    <t>10克</t>
+  </si>
+  <si>
+    <t>广东恒健制药有限公司</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>6910439000561</t>
+  </si>
+  <si>
+    <t>醋酸氟轻松乳膏</t>
+  </si>
+  <si>
+    <t>10g</t>
+  </si>
+  <si>
+    <t>天津太平洋制药有限公司</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>6937221717575</t>
+  </si>
+  <si>
+    <t>贤哥台式烤香肠原味24g</t>
+  </si>
+  <si>
+    <t>24g</t>
+  </si>
+  <si>
+    <t>广州市特贤食品有限公司</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>6933066000247</t>
+  </si>
+  <si>
+    <t>乖媳妇山椒凤爪</t>
+  </si>
+  <si>
+    <t>70g</t>
+  </si>
+  <si>
+    <t>重庆市曾巧食品有限公司</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>6970875028024</t>
+  </si>
+  <si>
+    <t>泡鸭翅</t>
+  </si>
+  <si>
+    <t>32g</t>
+  </si>
+  <si>
+    <t>客家功夫食品</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>6950228300861</t>
+  </si>
+  <si>
+    <t>糖醋烤脖</t>
+  </si>
+  <si>
+    <t>岳阳市湘山红食品</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>6970140452493</t>
+  </si>
+  <si>
+    <t>盐焗辣翅</t>
+  </si>
+  <si>
+    <t>28g</t>
+  </si>
+  <si>
+    <t>宁乡状元农产品有限公司</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>6931354455526</t>
+  </si>
+  <si>
+    <t>山椒竹笋</t>
+  </si>
+  <si>
+    <t>35g</t>
+  </si>
+  <si>
+    <t>成都慧康农业开发有限公司</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>6931754804917</t>
+  </si>
+  <si>
+    <t>26g手撕素肉排黑椒味</t>
+  </si>
+  <si>
+    <t>26克</t>
+  </si>
+  <si>
+    <t>湖南好味屋食品有限公司</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>6927161400019</t>
+  </si>
+  <si>
+    <t>卡元1元系列饼干</t>
+  </si>
+  <si>
+    <t>广东卡元食品有限公司</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>6945767700081</t>
+  </si>
+  <si>
+    <t>麦香包</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>惠州市广香园食品厂</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>6923811318666</t>
+  </si>
+  <si>
+    <t>鸭小腿</t>
+  </si>
+  <si>
+    <t>42g</t>
+  </si>
+  <si>
+    <t>宿迁市振伽食品</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>6931754805822</t>
+  </si>
+  <si>
+    <t>好味屋魔芋素毛肚18g</t>
+  </si>
+  <si>
+    <t>18g</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>6957788400048</t>
+  </si>
+  <si>
+    <t>洞庭湖鱼排</t>
+  </si>
+  <si>
+    <t>16G</t>
+  </si>
+  <si>
+    <t>桃江县鱼山鱼海食品有限公司</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>6923644251475</t>
+  </si>
+  <si>
+    <t>250ml*16</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6954611703161</t>
+  </si>
+  <si>
+    <t>花生牛奶</t>
+  </si>
+  <si>
+    <t>250mlx15盒</t>
+  </si>
+  <si>
+    <t>惠州绿全保健有限公司</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>6922406898996</t>
+  </si>
+  <si>
+    <t>蓬盛香港橄榄菜180g</t>
+  </si>
+  <si>
+    <t>180g</t>
+  </si>
+  <si>
+    <t>广东蓬盛实业有限公司</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>6950784108031</t>
+  </si>
+  <si>
+    <t>浙绍南乳18*268G</t>
+  </si>
+  <si>
+    <t>230g</t>
+  </si>
+  <si>
+    <t>广州市致美斋酱园有限公司副食品分公司</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>6907212168082</t>
+  </si>
+  <si>
+    <t>味丹味精400G</t>
+  </si>
+  <si>
+    <t>1*25/包</t>
+  </si>
+  <si>
+    <t>厦门味丹食品有限公司</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>6947593014370</t>
+  </si>
+  <si>
+    <t>星湖味精</t>
+  </si>
+  <si>
+    <t>160g</t>
+  </si>
+  <si>
+    <t>广东珠江桥生物科技股份有限公司</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>6902487381334</t>
+  </si>
+  <si>
+    <t>双桥味精80％50G</t>
+  </si>
+  <si>
+    <t>广州奥桑味精食品有限公司</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>6952200999803</t>
+  </si>
+  <si>
+    <t>原汁排骨面</t>
+  </si>
+  <si>
+    <t>800g</t>
+  </si>
+  <si>
+    <t>揭西康联食品厂</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>6921017101143</t>
+  </si>
+  <si>
+    <t>担担挂面</t>
+  </si>
+  <si>
+    <t>中山市麦飘香食品</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>6945030501292</t>
+  </si>
+  <si>
+    <t>麦香碗面</t>
+  </si>
+  <si>
+    <t>1.25kg</t>
+  </si>
+  <si>
+    <t>普宁市四丰粮油面制品厂</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>6921804700757</t>
+  </si>
+  <si>
+    <t>风味豆豉油制辣椒</t>
+  </si>
+  <si>
+    <t>280克/瓶</t>
+  </si>
+  <si>
+    <t>贵阳南明老干妈风味食品有限责任公司</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>6933904414083</t>
+  </si>
+  <si>
+    <t>中邦蒜蓉辣椒酱</t>
+  </si>
+  <si>
+    <t>230克</t>
+  </si>
+  <si>
+    <t>中山市中邦调味食品有限公司</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>6910934345686</t>
+  </si>
+  <si>
+    <t>紫金椒酱</t>
+  </si>
+  <si>
+    <t>200g</t>
+  </si>
+  <si>
+    <t>紫金县千禧食品有限公司</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>6920673703593</t>
+  </si>
+  <si>
+    <t>莲丰秘制辣腐乳</t>
+  </si>
+  <si>
+    <t>300克/瓶</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>6902265452218</t>
+  </si>
+  <si>
+    <t>HADAY海天白醋450ml</t>
+  </si>
+  <si>
+    <t>450ml</t>
+  </si>
+  <si>
+    <t>海天醋业集团</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>6902265700814</t>
+  </si>
+  <si>
+    <t>海天耗油</t>
+  </si>
+  <si>
+    <t>690g</t>
+  </si>
+  <si>
+    <t>海天耗油集团</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>6902265450917</t>
+  </si>
+  <si>
+    <t>古道料酒</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>6902265530213</t>
+  </si>
+  <si>
+    <t>海天小卤水230ml</t>
+  </si>
+  <si>
+    <t>230ml</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>6920780132323</t>
+  </si>
+  <si>
+    <t>750g唐三记西红茄汁</t>
+  </si>
+  <si>
+    <t>720g</t>
+  </si>
+  <si>
+    <t>深圳市好味佳食品有限公司</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>6902921502189</t>
+  </si>
+  <si>
+    <t>630ml致美斋糯米甜醋*1*12</t>
+  </si>
+  <si>
+    <t>630ml</t>
+  </si>
+  <si>
+    <t>广州致美斋食品有限公司</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>954429520321</t>
+  </si>
+  <si>
+    <t>老醋</t>
+  </si>
+  <si>
+    <t>420ml</t>
+  </si>
+  <si>
+    <t>中雄食品</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>6938311500114</t>
+  </si>
+  <si>
+    <t>龙口粉丝</t>
+  </si>
+  <si>
+    <t>烟台祥宏食品</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>6903148141915</t>
+  </si>
+  <si>
+    <t>汰渍淡雅熏香</t>
+  </si>
+  <si>
+    <t>3kg</t>
+  </si>
+  <si>
+    <t>广州保洁</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>6950383300041</t>
+  </si>
+  <si>
+    <t>竹奶奶</t>
+  </si>
+  <si>
+    <t>龙门县新华牙签厂</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +2059,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2129,7 +2705,9 @@
       <c r="C32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="1" t="s"/>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>143</v>
       </c>
@@ -3155,6 +3733,826 @@
       </c>
       <c r="F83" s="1" t="s">
         <v>366</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/goods.xlsx
+++ b/goods.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="689">
   <si>
     <t>ID</t>
   </si>
@@ -123,7 +123,7 @@
     <t>6921928090154</t>
   </si>
   <si>
-    <t>五指毛桃酒80ml  35%vol</t>
+    <t>五指毛桃酒80ml  35%</t>
   </si>
   <si>
     <t>80ml/杯</t>
@@ -660,7 +660,7 @@
     <t>6903148079614</t>
   </si>
   <si>
-    <t>750g飘柔兰花长效清爽去屑洗发露*</t>
+    <t>750g飘柔兰花长效清爽去屑洗发露</t>
   </si>
   <si>
     <t>750ml</t>
@@ -906,7 +906,7 @@
     <t>6917878037844</t>
   </si>
   <si>
-    <t>雀巢Nestle 鹰唛炼奶 全脂加糖炼乳 350g/罐</t>
+    <t>雀巢Nestle 全脂加糖炼乳 350g/罐</t>
   </si>
   <si>
     <t>48x350g</t>
@@ -1680,19 +1680,409 @@
     <t>3kg</t>
   </si>
   <si>
-    <t>广州保洁</t>
-  </si>
-  <si>
     <t>122</t>
   </si>
   <si>
     <t>6950383300041</t>
   </si>
   <si>
-    <t>竹奶奶</t>
+    <t>竹奶奶牙签</t>
   </si>
   <si>
     <t>龙门县新华牙签厂</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>6926590897506</t>
+  </si>
+  <si>
+    <t>系列产品-纯香</t>
+  </si>
+  <si>
+    <t>480张</t>
+  </si>
+  <si>
+    <t>博罗月钟氏联发原业厂</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>6903244371018</t>
+  </si>
+  <si>
+    <t>七度空间少女系列绢爽网面卫生巾</t>
+  </si>
+  <si>
+    <t>10片</t>
+  </si>
+  <si>
+    <t>福建恒安集团有限公司</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>6903244370974</t>
+  </si>
+  <si>
+    <t>七度空间卫生巾</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>6903244371056</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>6923807801639</t>
+  </si>
+  <si>
+    <t>下饭菜</t>
+  </si>
+  <si>
+    <t>345克</t>
+  </si>
+  <si>
+    <t>生产商：眉山市宏福食品有限公司</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>6937221718015</t>
+  </si>
+  <si>
+    <t>热狗肠</t>
+  </si>
+  <si>
+    <t>净含量30克</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>6920380500010</t>
+  </si>
+  <si>
+    <t>曲咪新乳膏</t>
+  </si>
+  <si>
+    <t>广东华润顺峰药业有限公司</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>6902170000139</t>
+  </si>
+  <si>
+    <t>众生丸</t>
+  </si>
+  <si>
+    <t>100丸</t>
+  </si>
+  <si>
+    <t>广东众生药业股份有限公司</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>6931760500100</t>
+  </si>
+  <si>
+    <t>三鞭酒</t>
+  </si>
+  <si>
+    <t>净含量：450ml</t>
+  </si>
+  <si>
+    <t>湛江市坡头区万宝酒业有限公司</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>6909131169201</t>
+  </si>
+  <si>
+    <t>劲牌35度中国保健劲酒125ml</t>
+  </si>
+  <si>
+    <t>32度；125ml</t>
+  </si>
+  <si>
+    <t>劲牌有限公司</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>6925526601460</t>
+  </si>
+  <si>
+    <t>百年糊涂酒超值装</t>
+  </si>
+  <si>
+    <t>125ml</t>
+  </si>
+  <si>
+    <t>贵州省仁怀市茅台镇糊涂酒业有限公司</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>6909131280647</t>
+  </si>
+  <si>
+    <t>中国劲酒</t>
+  </si>
+  <si>
+    <t>520ml</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>6928746328063</t>
+  </si>
+  <si>
+    <t>皖酒王</t>
+  </si>
+  <si>
+    <t>500ML</t>
+  </si>
+  <si>
+    <t>安徽优级皖酒业有限公司</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>6972386720206</t>
+  </si>
+  <si>
+    <t>广东米酒</t>
+  </si>
+  <si>
+    <t>610ml</t>
+  </si>
+  <si>
+    <t>中山市水乡象酒业有限公司</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>6928804010220</t>
+  </si>
+  <si>
+    <t>500ml雪碧柠檬味汽水</t>
+  </si>
+  <si>
+    <t>太古中萃发展有限公司</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>6950650218239</t>
+  </si>
+  <si>
+    <t>600ml亚洲沙示汽水</t>
+  </si>
+  <si>
+    <t>600mL</t>
+  </si>
+  <si>
+    <t>广州市香雪亚洲饮料有限公司</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>6970644598772</t>
+  </si>
+  <si>
+    <t>纯生</t>
+  </si>
+  <si>
+    <t>528mL</t>
+  </si>
+  <si>
+    <t>广州珠江啤酒股份有限公司</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>6970644591117</t>
+  </si>
+  <si>
+    <t>9.8度珠江0度精品啤酒</t>
+  </si>
+  <si>
+    <t>600ml瓶</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>6948960100030</t>
+  </si>
+  <si>
+    <t>百威啤酒</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>6901285991271</t>
+  </si>
+  <si>
+    <t>怡宝饮用纯净水1.555升</t>
+  </si>
+  <si>
+    <t>1.555升</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>6973564350024</t>
+  </si>
+  <si>
+    <t>拳誓真奶茶</t>
+  </si>
+  <si>
+    <t>420g</t>
+  </si>
+  <si>
+    <t>中山市拳哲真食品有限公司</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>6970996430003</t>
+  </si>
+  <si>
+    <t>酱汁鱼酱辣味</t>
+  </si>
+  <si>
+    <t>12g/包</t>
+  </si>
+  <si>
+    <t>湖南童记三利和食品有限公司</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>6970996430027</t>
+  </si>
+  <si>
+    <t>童记三利和酱汁鱼泡椒味12g</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>6970996430010</t>
+  </si>
+  <si>
+    <t>酱汁鱼</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>6970996430065</t>
+  </si>
+  <si>
+    <t>酱汁鱼老坛酸菜</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>6923811313166</t>
+  </si>
+  <si>
+    <t>42克</t>
+  </si>
+  <si>
+    <t>振伽食品有限公司</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>6902150222315</t>
+  </si>
+  <si>
+    <t>餐肉罐头</t>
+  </si>
+  <si>
+    <t>397克</t>
+  </si>
+  <si>
+    <t>佛山市顺德区粤花罐头食品有限公司</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>6925303730574</t>
+  </si>
+  <si>
+    <t>统一阿萨姆原味奶茶</t>
+  </si>
+  <si>
+    <t>PET500ml</t>
+  </si>
+  <si>
+    <t>统一企业(中国)投资有限公司</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>6946995500160</t>
+  </si>
+  <si>
+    <t>椰麦之恋面包</t>
+  </si>
+  <si>
+    <t>120克/包</t>
+  </si>
+  <si>
+    <t>东莞市福佳香食品有限公司</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>6946995589974</t>
+  </si>
+  <si>
+    <t>蔓越莓面包</t>
+  </si>
+  <si>
+    <t>95g</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2449,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4532,18 +4922,18 @@
         <v>553</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>554</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>12</v>
@@ -4552,7 +4942,605 @@
         <v>433</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
         <v>558</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D134" s="1" t="s"/>
+      <c r="E134" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>
